--- a/extracted_excel/Taita_gendered_enterprise.xlsx
+++ b/extracted_excel/Taita_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Taita</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -145,13 +139,13 @@
     <t>Crop suitability in terms of Soil types, AEZs, soil pH, cultural norms,e.g sorghum enterprise, rainfall requirement, altitude, and rainfed vs. irrigated farming and crop varieties For livestock in the county, AEZs there are 2 zones where we have a mixed farming crop and livestock zone, horticulture and dairy zone, as well as livestock types and breeds suitability Climate resilient varieties, forages for livestock and crops</t>
   </si>
   <si>
-    <t>meeting, barazas and discussions , the value chains already had strategies in place) Through public participation; meetings(stakeholder engagement), barazas (in some projects level), focused group discussion- number of people with different expertise to advice</t>
+    <t>meeting, barazas and discussions , the value chains already had strategies in place)  Through public participation; meetings(stakeholder engagement), barazas (in some projects level), focused group discussion- number of people with different expertise to advice</t>
   </si>
   <si>
     <t>Men Cattle(beef and dairy), goats, banana, tomatoes, onions,watermelon, rice Women Goat rearing, poultry, dairy in highland areas, horticulture (fruits and vegetables) and pulses(beans and peas), maize and beans, cassava (kimanga) Youth poultry, horticulture Elderly poultry and goats, maize and beans on small scale, pulses</t>
   </si>
   <si>
-    <t>land, Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services Access to training and knowledge/extension Access to information as market, weather Access to technology eg ICT, digital gadgets, internet, digital literacy Resource Men Women Youth Elderly Land Leading This follows after the male youth follows men Elderly abortion to men Finance Men have the collateral for loans but they mostly do not use that opportunity Highly because of loans and chamas, merry go round, and other sources and groups Male youth especially those in groups Low Access to training and knowledge/extension More men in residential training are dominated by men. Training within is dominated by women. Most women are housewives and they mostly do not have time for residential trainings. Husbands have a say on whether the women can attend trainings or not Few youths avail themselves for the extension services The elderly are not included in most trainings because of the education and literacy levels, unless they are translated to the local languages Access to information as market, weather Men lead. Men are the once to take control of the proceeds from sales Access to technology eg ICT, digital gadgets, internet, digital literacy Follow after women. They follow after youth. Women are mostly closer to their mothers and so mothers get more information through these interactions Youth lead Come last</t>
+    <t>land, Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services Access to training and knowledge/extension Access to information as market, weather Access to technology eg ICT, digital gadgets, internet, digital literacy  Resource Men Women Youth Elderly Land Leading This follows after the male youth follows men Elderly abortion to men Finance Men have the collateral for loans but they mostly do not use that opportunity Highly because of loans and chamas, merry go round, and other sources and groups Male youth especially those in groups Low Access to training and knowledge/extension More men in residential training are dominated by men. Training within is dominated by women. Most women are housewives and they mostly do not have time for residential trainings. Husbands have a say on whether the women can attend trainings or not Few youths avail themselves for the extension services The elderly are not included in most trainings because of the education and literacy levels, unless they are translated to the local languages Access to information as market, weather Men lead. Men are the once to take control of the proceeds from sales Access to technology eg ICT, digital gadgets, internet, digital literacy Follow after women. They follow after youth. Women are mostly closer to their mothers and so mothers get more information through these interactions Youth lead Come last</t>
   </si>
   <si>
     <t>The priority value chains include banana, beef cattle, green grams The market demand is not static. The selection of the priority value chains are based on the suitability of AEZ. The market for these value chains is readily available. There is support from development partners.</t>
@@ -160,7 +154,7 @@
     <t>Banana; Male Youth and women stand to tap opportunities in harvesting, transport (male youth)ripening, packaging, value addition (crisps, jam, s, wine, flour, ), and marketing. Greengrams: Men do threshing, value addition (chapati, samosa, dominated by women) irish potatoes: Women gain from value addition (chips, etc) Dairy cattle: Management (men), milking (women), transportation (male youth), value addition (yorghut, mala, dominated by women/ youth) Indigenous chicken- dominated by women, when the numbers increase, men join</t>
   </si>
   <si>
-    <t>Infrastructure. There is a need for good roads, aggregation centers, FPOs, utilization of digital tools where the seller and the buyer can interact. Value addition</t>
+    <t>Infrastructure. There is a need for good roads, aggregation centers, FPOs, utilization of digital tools where the seller and the buyer can interact.</t>
   </si>
   <si>
     <t>There is a cross border trade policy. Women in trade. For the banana value chain in Taveta, traders from both sides cross the border during market days without requirement for scrutiny.</t>
@@ -524,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,414 +534,324 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
